--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Exam02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9671E96F-6DAD-4C58-832C-07430E45F964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E985D-9330-433C-9BF3-63565D3820D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Part 5" sheetId="10" r:id="rId5"/>
     <sheet name="Part 6" sheetId="12" r:id="rId6"/>
     <sheet name="Part 7" sheetId="13" r:id="rId7"/>
+    <sheet name="answer" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Part 4'!$A$1:$C$151</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="953">
   <si>
     <t>35. What does the woman say a town recently did?</t>
   </si>
@@ -2591,13 +2592,313 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>1.B</t>
+  </si>
+  <si>
+    <t>2.C</t>
+  </si>
+  <si>
+    <t>3.D</t>
+  </si>
+  <si>
+    <t>4.A</t>
+  </si>
+  <si>
+    <t>5.D</t>
+  </si>
+  <si>
+    <t>6.C</t>
+  </si>
+  <si>
+    <t>7.A</t>
+  </si>
+  <si>
+    <t>8.C</t>
+  </si>
+  <si>
+    <t>9.B</t>
+  </si>
+  <si>
+    <t>10.C</t>
+  </si>
+  <si>
+    <t>11.C</t>
+  </si>
+  <si>
+    <t>12.C</t>
+  </si>
+  <si>
+    <t>13.B</t>
+  </si>
+  <si>
+    <t>14.A</t>
+  </si>
+  <si>
+    <t>15.A</t>
+  </si>
+  <si>
+    <t>16.C</t>
+  </si>
+  <si>
+    <t>17.B</t>
+  </si>
+  <si>
+    <t>18.C</t>
+  </si>
+  <si>
+    <t>19.A</t>
+  </si>
+  <si>
+    <t>20.A</t>
+  </si>
+  <si>
+    <t>21.B</t>
+  </si>
+  <si>
+    <t>22.B</t>
+  </si>
+  <si>
+    <t>23.B</t>
+  </si>
+  <si>
+    <t>24.A</t>
+  </si>
+  <si>
+    <t>25.C</t>
+  </si>
+  <si>
+    <t>26.B</t>
+  </si>
+  <si>
+    <t>27.A</t>
+  </si>
+  <si>
+    <t>28.C</t>
+  </si>
+  <si>
+    <t>29.C</t>
+  </si>
+  <si>
+    <t>30.C</t>
+  </si>
+  <si>
+    <t>31.B</t>
+  </si>
+  <si>
+    <t>32.C</t>
+  </si>
+  <si>
+    <t>33.B</t>
+  </si>
+  <si>
+    <t>34.D</t>
+  </si>
+  <si>
+    <t>35.D</t>
+  </si>
+  <si>
+    <t>36.B</t>
+  </si>
+  <si>
+    <t>37.A</t>
+  </si>
+  <si>
+    <t>38.B</t>
+  </si>
+  <si>
+    <t>39.B</t>
+  </si>
+  <si>
+    <t>40.C</t>
+  </si>
+  <si>
+    <t>41.C</t>
+  </si>
+  <si>
+    <t>42.B</t>
+  </si>
+  <si>
+    <t>43.A</t>
+  </si>
+  <si>
+    <t>44.D</t>
+  </si>
+  <si>
+    <t>45.C</t>
+  </si>
+  <si>
+    <t>46.B</t>
+  </si>
+  <si>
+    <t>47.D</t>
+  </si>
+  <si>
+    <t>48.C</t>
+  </si>
+  <si>
+    <t>49.A</t>
+  </si>
+  <si>
+    <t>50.A</t>
+  </si>
+  <si>
+    <t>51.B</t>
+  </si>
+  <si>
+    <t>52.C</t>
+  </si>
+  <si>
+    <t>53.D</t>
+  </si>
+  <si>
+    <t>54.C</t>
+  </si>
+  <si>
+    <t>55.A</t>
+  </si>
+  <si>
+    <t>56.B</t>
+  </si>
+  <si>
+    <t>57.C</t>
+  </si>
+  <si>
+    <t>58.D</t>
+  </si>
+  <si>
+    <t>59.D</t>
+  </si>
+  <si>
+    <t>60.C</t>
+  </si>
+  <si>
+    <t>61.A</t>
+  </si>
+  <si>
+    <t>62.B</t>
+  </si>
+  <si>
+    <t>63.D</t>
+  </si>
+  <si>
+    <t>64.D</t>
+  </si>
+  <si>
+    <t>65.B</t>
+  </si>
+  <si>
+    <t>66.C</t>
+  </si>
+  <si>
+    <t>67.A</t>
+  </si>
+  <si>
+    <t>68.C</t>
+  </si>
+  <si>
+    <t>69.B</t>
+  </si>
+  <si>
+    <t>70.B</t>
+  </si>
+  <si>
+    <t>71.B</t>
+  </si>
+  <si>
+    <t>72.C</t>
+  </si>
+  <si>
+    <t>73.B</t>
+  </si>
+  <si>
+    <t>74.D</t>
+  </si>
+  <si>
+    <t>75.C</t>
+  </si>
+  <si>
+    <t>76.A</t>
+  </si>
+  <si>
+    <t>77.B</t>
+  </si>
+  <si>
+    <t>78.A</t>
+  </si>
+  <si>
+    <t>79.C</t>
+  </si>
+  <si>
+    <t>80.D</t>
+  </si>
+  <si>
+    <t>81.C</t>
+  </si>
+  <si>
+    <t>82.A</t>
+  </si>
+  <si>
+    <t>83.B</t>
+  </si>
+  <si>
+    <t>84.A</t>
+  </si>
+  <si>
+    <t>85.A</t>
+  </si>
+  <si>
+    <t>86.A</t>
+  </si>
+  <si>
+    <t>87.B</t>
+  </si>
+  <si>
+    <t>88.D</t>
+  </si>
+  <si>
+    <t>89.A</t>
+  </si>
+  <si>
+    <t>90.C</t>
+  </si>
+  <si>
+    <t>91.B</t>
+  </si>
+  <si>
+    <t>92.B</t>
+  </si>
+  <si>
+    <t>93.D</t>
+  </si>
+  <si>
+    <t>94.A</t>
+  </si>
+  <si>
+    <t>95.C</t>
+  </si>
+  <si>
+    <t>96.B</t>
+  </si>
+  <si>
+    <t>97.D</t>
+  </si>
+  <si>
+    <t>98.B</t>
+  </si>
+  <si>
+    <t>99.C</t>
+  </si>
+  <si>
+    <t>100.D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2703,6 +3004,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2712,7 +3017,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2720,11 +3025,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2794,6 +3114,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3111,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF89FB1-9491-4D31-A4C6-DCB09EA1A419}">
   <dimension ref="B1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8692,4 +9015,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA9F01-7A80-4C6A-A944-C40B861D12D7}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E985D-9330-433C-9BF3-63565D3820D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6F791-0E50-4CCB-9DFF-AFCB5F278B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1047">
   <si>
     <t>35. What does the woman say a town recently did?</t>
   </si>
@@ -2892,6 +2892,288 @@
   </si>
   <si>
     <t>100.D</t>
+  </si>
+  <si>
+    <t>101.A</t>
+  </si>
+  <si>
+    <t>102.A</t>
+  </si>
+  <si>
+    <t>103.D</t>
+  </si>
+  <si>
+    <t>104.D</t>
+  </si>
+  <si>
+    <t>105.A</t>
+  </si>
+  <si>
+    <t>106.A</t>
+  </si>
+  <si>
+    <t>107.B</t>
+  </si>
+  <si>
+    <t>108.C</t>
+  </si>
+  <si>
+    <t>109.D</t>
+  </si>
+  <si>
+    <t>110.B</t>
+  </si>
+  <si>
+    <t>111.C</t>
+  </si>
+  <si>
+    <t>112.B</t>
+  </si>
+  <si>
+    <t>113.B</t>
+  </si>
+  <si>
+    <t>114.A</t>
+  </si>
+  <si>
+    <t>115.D</t>
+  </si>
+  <si>
+    <t>116.D</t>
+  </si>
+  <si>
+    <t>117.C</t>
+  </si>
+  <si>
+    <t>118.D</t>
+  </si>
+  <si>
+    <t>119.C</t>
+  </si>
+  <si>
+    <t>120.C</t>
+  </si>
+  <si>
+    <t>121.A</t>
+  </si>
+  <si>
+    <t>122.B</t>
+  </si>
+  <si>
+    <t>123.B</t>
+  </si>
+  <si>
+    <t>124.C</t>
+  </si>
+  <si>
+    <t>125.D</t>
+  </si>
+  <si>
+    <t>126.A</t>
+  </si>
+  <si>
+    <t>127.A</t>
+  </si>
+  <si>
+    <t>128.D</t>
+  </si>
+  <si>
+    <t>129.A</t>
+  </si>
+  <si>
+    <t>130.B</t>
+  </si>
+  <si>
+    <t>131.B</t>
+  </si>
+  <si>
+    <t>132.C</t>
+  </si>
+  <si>
+    <t>133.A</t>
+  </si>
+  <si>
+    <t>134.D</t>
+  </si>
+  <si>
+    <t>135.D</t>
+  </si>
+  <si>
+    <t>136.C</t>
+  </si>
+  <si>
+    <t>137.A</t>
+  </si>
+  <si>
+    <t>138.B</t>
+  </si>
+  <si>
+    <t>139.A</t>
+  </si>
+  <si>
+    <t>140.C</t>
+  </si>
+  <si>
+    <t>141.A</t>
+  </si>
+  <si>
+    <t>144.A</t>
+  </si>
+  <si>
+    <t>145.D</t>
+  </si>
+  <si>
+    <t>146.D</t>
+  </si>
+  <si>
+    <t>147.C</t>
+  </si>
+  <si>
+    <t>148.A</t>
+  </si>
+  <si>
+    <t>149.C</t>
+  </si>
+  <si>
+    <t>150.C</t>
+  </si>
+  <si>
+    <t>151.B</t>
+  </si>
+  <si>
+    <t>152.D</t>
+  </si>
+  <si>
+    <t>153.B</t>
+  </si>
+  <si>
+    <t>154.B</t>
+  </si>
+  <si>
+    <t>155.D</t>
+  </si>
+  <si>
+    <t>156.C</t>
+  </si>
+  <si>
+    <t>157.B</t>
+  </si>
+  <si>
+    <t>158.A</t>
+  </si>
+  <si>
+    <t>160.B</t>
+  </si>
+  <si>
+    <t>161.C</t>
+  </si>
+  <si>
+    <t>163.D</t>
+  </si>
+  <si>
+    <t>164.D</t>
+  </si>
+  <si>
+    <t>165.B</t>
+  </si>
+  <si>
+    <t>166.C</t>
+  </si>
+  <si>
+    <t>167.A</t>
+  </si>
+  <si>
+    <t>168.D</t>
+  </si>
+  <si>
+    <t>169.C</t>
+  </si>
+  <si>
+    <t>170.A</t>
+  </si>
+  <si>
+    <t>171.B</t>
+  </si>
+  <si>
+    <t>172.D</t>
+  </si>
+  <si>
+    <t>173.B</t>
+  </si>
+  <si>
+    <t>174.A</t>
+  </si>
+  <si>
+    <t>176.C</t>
+  </si>
+  <si>
+    <t>177.A</t>
+  </si>
+  <si>
+    <t>178.D</t>
+  </si>
+  <si>
+    <t>179.B</t>
+  </si>
+  <si>
+    <t>180.D</t>
+  </si>
+  <si>
+    <t>181.A</t>
+  </si>
+  <si>
+    <t>182.A</t>
+  </si>
+  <si>
+    <t>183.C</t>
+  </si>
+  <si>
+    <t>184.C</t>
+  </si>
+  <si>
+    <t>185.B</t>
+  </si>
+  <si>
+    <t>186.C</t>
+  </si>
+  <si>
+    <t>187.C</t>
+  </si>
+  <si>
+    <t>188.B</t>
+  </si>
+  <si>
+    <t>189.C</t>
+  </si>
+  <si>
+    <t>190.A</t>
+  </si>
+  <si>
+    <t>191.A</t>
+  </si>
+  <si>
+    <t>193.D</t>
+  </si>
+  <si>
+    <t>194.D</t>
+  </si>
+  <si>
+    <t>195.C</t>
+  </si>
+  <si>
+    <t>196.B</t>
+  </si>
+  <si>
+    <t>197.A</t>
+  </si>
+  <si>
+    <t>198.D</t>
+  </si>
+  <si>
+    <t>199.C</t>
+  </si>
+  <si>
+    <t>200.B</t>
   </si>
 </sst>
 </file>
@@ -9019,10 +9301,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA9F01-7A80-4C6A-A944-C40B861D12D7}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9367,6 +9649,346 @@
         <v>952</v>
       </c>
     </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>954</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>956</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="24" t="s">
+        <v>963</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>979</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>981</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="B29" s="24">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="C29" s="24">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D32" s="24">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B33" s="24">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="24" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E35" s="24">
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B39" s="24">
+        <v>192.8</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6F791-0E50-4CCB-9DFF-AFCB5F278B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81CF9BF-A705-43BC-B133-53C8A2BFCF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="9" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>B. To refuse a request</t>
   </si>
   <si>
-    <t>C. ) To express agreement</t>
-  </si>
-  <si>
     <t>D. To show concern</t>
   </si>
   <si>
@@ -3174,6 +3171,9 @@
   </si>
   <si>
     <t>200.B</t>
+  </si>
+  <si>
+    <t>C. To express agreement</t>
   </si>
 </sst>
 </file>
@@ -3732,160 +3732,160 @@
   <sheetData>
     <row r="1" spans="2:3" ht="14.4">
       <c r="B1" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="14.4">
       <c r="B2" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="14.4">
       <c r="B7" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="14.4">
       <c r="B12" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.4">
       <c r="B17" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="14.4">
       <c r="B22" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="14.4">
       <c r="B27" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +3912,7 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -3926,21 +3926,21 @@
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1">
       <c r="B3" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="2:5" s="8" customFormat="1">
       <c r="B4" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:5" s="8" customFormat="1">
       <c r="B5" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="9"/>
@@ -3954,21 +3954,21 @@
     </row>
     <row r="7" spans="2:5" s="8" customFormat="1">
       <c r="B7" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:5" s="8" customFormat="1">
       <c r="B8" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:5" s="8" customFormat="1">
       <c r="B9" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3982,21 +3982,21 @@
     </row>
     <row r="11" spans="2:5" s="8" customFormat="1">
       <c r="B11" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="2:5" s="8" customFormat="1">
       <c r="B12" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="2:5" s="8" customFormat="1">
       <c r="B13" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -4010,20 +4010,20 @@
     </row>
     <row r="15" spans="2:5" s="8" customFormat="1">
       <c r="B15" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="2:5" s="11" customFormat="1">
       <c r="B16" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" s="11" customFormat="1">
       <c r="B17" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="19" spans="2:5" s="11" customFormat="1">
       <c r="B19" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" s="11" customFormat="1">
       <c r="B20" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" s="11" customFormat="1">
       <c r="B21" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -4059,19 +4059,19 @@
     </row>
     <row r="23" spans="2:5" s="11" customFormat="1">
       <c r="B23" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" s="11" customFormat="1">
       <c r="B24" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" s="11" customFormat="1">
       <c r="B25" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -4083,19 +4083,19 @@
     </row>
     <row r="27" spans="2:5" s="11" customFormat="1">
       <c r="B27" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" s="11" customFormat="1">
       <c r="B28" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" s="11" customFormat="1">
       <c r="B29" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E29" s="8"/>
     </row>
@@ -4107,19 +4107,19 @@
     </row>
     <row r="31" spans="2:5" s="11" customFormat="1">
       <c r="B31" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" s="11" customFormat="1">
       <c r="B32" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" s="11" customFormat="1">
       <c r="B33" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E33" s="8"/>
     </row>
@@ -4131,18 +4131,18 @@
     </row>
     <row r="35" spans="2:5" s="11" customFormat="1">
       <c r="B35" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -4152,17 +4152,17 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -4172,17 +4172,17 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -4192,17 +4192,17 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -4212,17 +4212,17 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -4232,17 +4232,17 @@
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -4252,17 +4252,17 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="2:2">
@@ -4272,17 +4272,17 @@
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="2:2">
@@ -4292,17 +4292,17 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="2:2">
@@ -4312,17 +4312,17 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="2:2">
@@ -4332,17 +4332,17 @@
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="2:2">
@@ -4352,17 +4352,17 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="2:2">
@@ -4372,17 +4372,17 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="2:2">
@@ -4392,17 +4392,17 @@
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="2:2">
@@ -4412,17 +4412,17 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="2:2">
@@ -4432,17 +4432,17 @@
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="2:2">
@@ -4452,17 +4452,17 @@
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4476,8 +4476,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4491,7 +4491,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="13.8">
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4924,562 +4924,562 @@
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="7" t="s">
-        <v>83</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="20.399999999999999">
       <c r="B162" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="20.399999999999999">
       <c r="B177" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="25.8" customHeight="1">
       <c r="B192" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="13.8" customHeight="1">
       <c r="B194" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5508,87 +5508,87 @@
     <row r="1" spans="1:2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="20.399999999999999">
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -5598,667 +5598,667 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="20.399999999999999">
       <c r="B47" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="20.399999999999999">
       <c r="B52" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="20.399999999999999">
       <c r="B62" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="20.399999999999999">
       <c r="B72" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="20.399999999999999">
       <c r="B87" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="20.399999999999999">
       <c r="B92" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="20.399999999999999">
       <c r="B102" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="20.399999999999999">
       <c r="B117" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6289,758 +6289,758 @@
     <row r="1" spans="1:3" ht="13.8">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="20.399999999999999">
       <c r="B2" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.399999999999999">
       <c r="B7" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.399999999999999">
       <c r="B12" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.399999999999999">
       <c r="B17" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="20.399999999999999">
       <c r="B22" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="20.399999999999999">
       <c r="B27" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="20.399999999999999">
       <c r="B32" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="20.399999999999999">
       <c r="B37" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="20.399999999999999">
       <c r="B42" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="20.399999999999999">
       <c r="B47" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="20.399999999999999">
       <c r="B52" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="20.399999999999999">
       <c r="B57" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="20.399999999999999">
       <c r="B62" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="20.399999999999999">
       <c r="B67" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="20.399999999999999">
       <c r="B72" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="20.399999999999999">
       <c r="B77" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="20.399999999999999">
       <c r="B82" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="20.399999999999999">
       <c r="B87" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="20.399999999999999">
       <c r="B92" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="20.399999999999999">
       <c r="B97" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="20.399999999999999">
       <c r="B102" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="20.399999999999999">
       <c r="B107" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="20.399999999999999">
       <c r="B112" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="20.399999999999999">
       <c r="B117" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="20.399999999999999">
       <c r="B122" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="2:2" ht="20.399999999999999">
       <c r="B127" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="20.399999999999999">
       <c r="B132" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="20.399999999999999">
       <c r="B137" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="2:2" ht="20.399999999999999">
       <c r="B142" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="30.6">
       <c r="B147" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +7070,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.8">
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -7079,7 +7079,7 @@
     <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7088,7 +7088,7 @@
     <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -7097,7 +7097,7 @@
     <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="15"/>
       <c r="B4" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -7106,7 +7106,7 @@
     <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -7115,7 +7115,7 @@
     <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7124,7 +7124,7 @@
     <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -7133,7 +7133,7 @@
     <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -7142,7 +7142,7 @@
     <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -7151,7 +7151,7 @@
     <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="15"/>
       <c r="B10" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7160,7 +7160,7 @@
     <row r="11" spans="1:5" ht="13.8">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7169,7 +7169,7 @@
     <row r="12" spans="1:5" ht="13.8">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7178,7 +7178,7 @@
     <row r="13" spans="1:5" ht="13.8">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7187,7 +7187,7 @@
     <row r="14" spans="1:5" ht="13.8">
       <c r="A14" s="15"/>
       <c r="B14" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7196,7 +7196,7 @@
     <row r="15" spans="1:5" ht="13.8">
       <c r="A15" s="15"/>
       <c r="B15" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7205,7 +7205,7 @@
     <row r="16" spans="1:5" ht="13.8">
       <c r="A16" s="15"/>
       <c r="B16" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7214,7 +7214,7 @@
     <row r="17" spans="1:5" ht="13.8">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7223,7 +7223,7 @@
     <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="15"/>
       <c r="B18" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7232,7 +7232,7 @@
     <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="15"/>
       <c r="B19" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7241,7 +7241,7 @@
     <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="15"/>
       <c r="B20" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7249,58 +7249,58 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:5" customFormat="1">
       <c r="A31" s="3"/>
       <c r="B31" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -7308,7 +7308,7 @@
     <row r="32" spans="1:5" customFormat="1">
       <c r="A32" s="3"/>
       <c r="B32" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -7316,7 +7316,7 @@
     <row r="33" spans="1:5" customFormat="1" ht="26.4">
       <c r="A33" s="3"/>
       <c r="B33" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -7324,7 +7324,7 @@
     <row r="34" spans="1:5" customFormat="1">
       <c r="A34" s="3"/>
       <c r="B34" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -7332,7 +7332,7 @@
     <row r="35" spans="1:5" customFormat="1">
       <c r="A35" s="3"/>
       <c r="B35" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7340,7 +7340,7 @@
     <row r="36" spans="1:5" customFormat="1">
       <c r="A36" s="3"/>
       <c r="B36" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -7348,7 +7348,7 @@
     <row r="37" spans="1:5" customFormat="1">
       <c r="A37" s="3"/>
       <c r="B37" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -7356,7 +7356,7 @@
     <row r="38" spans="1:5" customFormat="1">
       <c r="A38" s="3"/>
       <c r="B38" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -7364,7 +7364,7 @@
     <row r="39" spans="1:5" customFormat="1">
       <c r="A39" s="3"/>
       <c r="B39" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -7372,7 +7372,7 @@
     <row r="40" spans="1:5" customFormat="1">
       <c r="A40" s="3"/>
       <c r="B40" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7380,7 +7380,7 @@
     <row r="41" spans="1:5" customFormat="1">
       <c r="A41" s="3"/>
       <c r="B41" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -7388,7 +7388,7 @@
     <row r="42" spans="1:5" customFormat="1">
       <c r="A42" s="3"/>
       <c r="B42" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -7396,7 +7396,7 @@
     <row r="43" spans="1:5" customFormat="1">
       <c r="A43" s="3"/>
       <c r="B43" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -7404,7 +7404,7 @@
     <row r="44" spans="1:5" customFormat="1">
       <c r="A44" s="3"/>
       <c r="B44" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -7412,7 +7412,7 @@
     <row r="45" spans="1:5" customFormat="1">
       <c r="A45" s="3"/>
       <c r="B45" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -7420,7 +7420,7 @@
     <row r="46" spans="1:5" customFormat="1">
       <c r="A46" s="3"/>
       <c r="B46" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -7428,7 +7428,7 @@
     <row r="47" spans="1:5" customFormat="1">
       <c r="A47" s="3"/>
       <c r="B47" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -7436,7 +7436,7 @@
     <row r="48" spans="1:5" customFormat="1">
       <c r="A48" s="3"/>
       <c r="B48" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -7444,7 +7444,7 @@
     <row r="49" spans="1:5" customFormat="1">
       <c r="A49" s="3"/>
       <c r="B49" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -7452,7 +7452,7 @@
     <row r="50" spans="1:5" customFormat="1">
       <c r="A50" s="3"/>
       <c r="B50" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -7460,7 +7460,7 @@
     <row r="51" spans="1:5" customFormat="1">
       <c r="A51" s="3"/>
       <c r="B51" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -7468,7 +7468,7 @@
     <row r="52" spans="1:5" customFormat="1">
       <c r="A52" s="3"/>
       <c r="B52" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -7476,7 +7476,7 @@
     <row r="53" spans="1:5" customFormat="1" ht="26.4">
       <c r="A53" s="3"/>
       <c r="B53" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -7484,7 +7484,7 @@
     <row r="54" spans="1:5" customFormat="1">
       <c r="A54" s="3"/>
       <c r="B54" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -7492,7 +7492,7 @@
     <row r="55" spans="1:5" customFormat="1">
       <c r="A55" s="3"/>
       <c r="B55" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -7500,7 +7500,7 @@
     <row r="56" spans="1:5" customFormat="1">
       <c r="A56" s="3"/>
       <c r="B56" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -7508,7 +7508,7 @@
     <row r="57" spans="1:5" customFormat="1">
       <c r="A57" s="3"/>
       <c r="B57" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -7516,7 +7516,7 @@
     <row r="58" spans="1:5" customFormat="1">
       <c r="A58" s="3"/>
       <c r="B58" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -7524,7 +7524,7 @@
     <row r="59" spans="1:5" customFormat="1">
       <c r="A59" s="3"/>
       <c r="B59" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7532,7 +7532,7 @@
     <row r="60" spans="1:5" customFormat="1">
       <c r="A60" s="3"/>
       <c r="B60" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -7540,7 +7540,7 @@
     <row r="61" spans="1:5" customFormat="1">
       <c r="A61" s="3"/>
       <c r="B61" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -7548,7 +7548,7 @@
     <row r="62" spans="1:5" customFormat="1">
       <c r="A62" s="3"/>
       <c r="B62" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -7556,7 +7556,7 @@
     <row r="63" spans="1:5" customFormat="1" ht="26.4">
       <c r="A63" s="3"/>
       <c r="B63" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -7564,7 +7564,7 @@
     <row r="64" spans="1:5" customFormat="1">
       <c r="A64" s="3"/>
       <c r="B64" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -7572,7 +7572,7 @@
     <row r="65" spans="1:5" customFormat="1">
       <c r="A65" s="3"/>
       <c r="B65" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -7580,7 +7580,7 @@
     <row r="66" spans="1:5" customFormat="1">
       <c r="A66" s="3"/>
       <c r="B66" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -7588,7 +7588,7 @@
     <row r="67" spans="1:5" customFormat="1">
       <c r="A67" s="3"/>
       <c r="B67" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -7596,7 +7596,7 @@
     <row r="68" spans="1:5" customFormat="1">
       <c r="A68" s="3"/>
       <c r="B68" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -7604,7 +7604,7 @@
     <row r="69" spans="1:5" customFormat="1">
       <c r="A69" s="3"/>
       <c r="B69" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -7612,7 +7612,7 @@
     <row r="70" spans="1:5" customFormat="1">
       <c r="A70" s="3"/>
       <c r="B70" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -7620,7 +7620,7 @@
     <row r="71" spans="1:5" customFormat="1">
       <c r="A71" s="3"/>
       <c r="B71" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7628,7 +7628,7 @@
     <row r="72" spans="1:5" customFormat="1">
       <c r="A72" s="3"/>
       <c r="B72" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -7636,7 +7636,7 @@
     <row r="73" spans="1:5" customFormat="1">
       <c r="A73" s="3"/>
       <c r="B73" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -7644,7 +7644,7 @@
     <row r="74" spans="1:5" customFormat="1">
       <c r="A74" s="3"/>
       <c r="B74" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -7652,7 +7652,7 @@
     <row r="75" spans="1:5" customFormat="1">
       <c r="A75" s="3"/>
       <c r="B75" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -7660,7 +7660,7 @@
     <row r="76" spans="1:5" customFormat="1">
       <c r="A76" s="3"/>
       <c r="B76" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -7668,7 +7668,7 @@
     <row r="77" spans="1:5" customFormat="1">
       <c r="A77" s="3"/>
       <c r="B77" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -7676,7 +7676,7 @@
     <row r="78" spans="1:5" customFormat="1">
       <c r="A78" s="3"/>
       <c r="B78" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -7684,7 +7684,7 @@
     <row r="79" spans="1:5" customFormat="1">
       <c r="A79" s="3"/>
       <c r="B79" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -7692,14 +7692,14 @@
     <row r="80" spans="1:5" customFormat="1">
       <c r="A80" s="3"/>
       <c r="B80" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -7729,7 +7729,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.8">
       <c r="B1" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="2" spans="2:5" ht="13.8">
       <c r="B2" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="3" spans="2:5" ht="13.8">
       <c r="B3" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="4" spans="2:5" ht="13.8">
       <c r="B4" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="5" spans="2:5" ht="13.8">
       <c r="B5" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="6" spans="2:5" ht="13.8">
       <c r="B6" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="7" spans="2:5" ht="13.8">
       <c r="B7" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="8" spans="2:5" ht="13.8">
       <c r="B8" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="9" spans="2:5" ht="13.8">
       <c r="B9" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="10" spans="2:5" ht="13.8">
       <c r="B10" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="11" spans="2:5" ht="13.8">
       <c r="B11" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="12" spans="2:5" ht="13.8">
       <c r="B12" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="13" spans="2:5" ht="13.8">
       <c r="B13" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="14" spans="2:5" ht="13.8">
       <c r="B14" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="15" spans="2:5" ht="13.8">
       <c r="B15" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="16" spans="2:5" ht="13.8">
       <c r="B16" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="17" spans="1:5" ht="26.4">
       <c r="B17" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="18" spans="1:5" ht="13.8">
       <c r="B18" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="19" spans="1:5" ht="13.8">
       <c r="B19" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.8">
       <c r="B20" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7889,58 +7889,58 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.4">
       <c r="B27" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:5" customFormat="1">
       <c r="A31" s="3"/>
       <c r="B31" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -7948,7 +7948,7 @@
     <row r="32" spans="1:5" customFormat="1">
       <c r="A32" s="3"/>
       <c r="B32" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -7956,7 +7956,7 @@
     <row r="33" spans="1:5" customFormat="1">
       <c r="A33" s="3"/>
       <c r="B33" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -7964,7 +7964,7 @@
     <row r="34" spans="1:5" customFormat="1">
       <c r="A34" s="3"/>
       <c r="B34" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -7972,7 +7972,7 @@
     <row r="35" spans="1:5" customFormat="1">
       <c r="A35" s="3"/>
       <c r="B35" s="22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7980,7 +7980,7 @@
     <row r="36" spans="1:5" customFormat="1">
       <c r="A36" s="3"/>
       <c r="B36" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -7988,7 +7988,7 @@
     <row r="37" spans="1:5" customFormat="1" ht="26.4">
       <c r="A37" s="3"/>
       <c r="B37" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -7996,7 +7996,7 @@
     <row r="38" spans="1:5" customFormat="1">
       <c r="A38" s="3"/>
       <c r="B38" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -8004,7 +8004,7 @@
     <row r="39" spans="1:5" customFormat="1">
       <c r="A39" s="3"/>
       <c r="B39" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -8012,7 +8012,7 @@
     <row r="40" spans="1:5" customFormat="1">
       <c r="A40" s="3"/>
       <c r="B40" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -8020,7 +8020,7 @@
     <row r="41" spans="1:5" customFormat="1">
       <c r="A41" s="3"/>
       <c r="B41" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -8028,7 +8028,7 @@
     <row r="42" spans="1:5" customFormat="1">
       <c r="A42" s="3"/>
       <c r="B42" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -8036,7 +8036,7 @@
     <row r="43" spans="1:5" customFormat="1">
       <c r="A43" s="3"/>
       <c r="B43" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -8044,7 +8044,7 @@
     <row r="44" spans="1:5" customFormat="1">
       <c r="A44" s="3"/>
       <c r="B44" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -8052,7 +8052,7 @@
     <row r="45" spans="1:5" customFormat="1">
       <c r="A45" s="3"/>
       <c r="B45" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -8060,7 +8060,7 @@
     <row r="46" spans="1:5" customFormat="1">
       <c r="A46" s="3"/>
       <c r="B46" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -8068,7 +8068,7 @@
     <row r="47" spans="1:5" customFormat="1">
       <c r="A47" s="3"/>
       <c r="B47" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -8076,7 +8076,7 @@
     <row r="48" spans="1:5" customFormat="1">
       <c r="A48" s="3"/>
       <c r="B48" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -8084,7 +8084,7 @@
     <row r="49" spans="1:5" customFormat="1">
       <c r="A49" s="3"/>
       <c r="B49" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -8092,7 +8092,7 @@
     <row r="50" spans="1:5" customFormat="1">
       <c r="A50" s="3"/>
       <c r="B50" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -8100,7 +8100,7 @@
     <row r="51" spans="1:5" customFormat="1" ht="26.4">
       <c r="A51" s="3"/>
       <c r="B51" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -8108,7 +8108,7 @@
     <row r="52" spans="1:5" customFormat="1" ht="26.4">
       <c r="A52" s="3"/>
       <c r="B52" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -8116,7 +8116,7 @@
     <row r="53" spans="1:5" customFormat="1">
       <c r="A53" s="3"/>
       <c r="B53" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -8124,7 +8124,7 @@
     <row r="54" spans="1:5" customFormat="1">
       <c r="A54" s="3"/>
       <c r="B54" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -8132,7 +8132,7 @@
     <row r="55" spans="1:5" customFormat="1">
       <c r="A55" s="3"/>
       <c r="B55" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -8140,7 +8140,7 @@
     <row r="56" spans="1:5" customFormat="1">
       <c r="A56" s="3"/>
       <c r="B56" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -8148,7 +8148,7 @@
     <row r="57" spans="1:5" customFormat="1">
       <c r="A57" s="3"/>
       <c r="B57" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -8156,7 +8156,7 @@
     <row r="58" spans="1:5" customFormat="1">
       <c r="A58" s="3"/>
       <c r="B58" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -8164,7 +8164,7 @@
     <row r="59" spans="1:5" customFormat="1">
       <c r="A59" s="3"/>
       <c r="B59" s="22" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -8172,7 +8172,7 @@
     <row r="60" spans="1:5" customFormat="1">
       <c r="A60" s="3"/>
       <c r="B60" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -8180,7 +8180,7 @@
     <row r="61" spans="1:5" customFormat="1">
       <c r="A61" s="3"/>
       <c r="B61" s="22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -8188,7 +8188,7 @@
     <row r="62" spans="1:5" customFormat="1">
       <c r="A62" s="3"/>
       <c r="B62" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -8196,7 +8196,7 @@
     <row r="63" spans="1:5" customFormat="1">
       <c r="A63" s="3"/>
       <c r="B63" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -8204,7 +8204,7 @@
     <row r="64" spans="1:5" customFormat="1">
       <c r="A64" s="3"/>
       <c r="B64" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -8212,7 +8212,7 @@
     <row r="65" spans="1:5" customFormat="1">
       <c r="A65" s="3"/>
       <c r="B65" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -8220,7 +8220,7 @@
     <row r="66" spans="1:5" customFormat="1">
       <c r="A66" s="3"/>
       <c r="B66" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -8228,7 +8228,7 @@
     <row r="67" spans="1:5" customFormat="1" ht="52.8">
       <c r="A67" s="3"/>
       <c r="B67" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -8236,7 +8236,7 @@
     <row r="68" spans="1:5" customFormat="1">
       <c r="A68" s="3"/>
       <c r="B68" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -8244,7 +8244,7 @@
     <row r="69" spans="1:5" customFormat="1">
       <c r="A69" s="3"/>
       <c r="B69" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -8252,7 +8252,7 @@
     <row r="70" spans="1:5" customFormat="1">
       <c r="A70" s="3"/>
       <c r="B70" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -8260,7 +8260,7 @@
     <row r="71" spans="1:5" customFormat="1">
       <c r="A71" s="3"/>
       <c r="B71" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -8268,7 +8268,7 @@
     <row r="72" spans="1:5" customFormat="1">
       <c r="A72" s="3"/>
       <c r="B72" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -8276,7 +8276,7 @@
     <row r="73" spans="1:5" customFormat="1">
       <c r="A73" s="3"/>
       <c r="B73" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -8284,7 +8284,7 @@
     <row r="74" spans="1:5" customFormat="1">
       <c r="A74" s="3"/>
       <c r="B74" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -8292,7 +8292,7 @@
     <row r="75" spans="1:5" customFormat="1">
       <c r="A75" s="3"/>
       <c r="B75" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -8300,7 +8300,7 @@
     <row r="76" spans="1:5" customFormat="1">
       <c r="A76" s="3"/>
       <c r="B76" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -8308,7 +8308,7 @@
     <row r="77" spans="1:5" customFormat="1">
       <c r="A77" s="3"/>
       <c r="B77" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -8316,7 +8316,7 @@
     <row r="78" spans="1:5" customFormat="1" ht="26.4">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -8324,7 +8324,7 @@
     <row r="79" spans="1:5" customFormat="1" ht="26.4">
       <c r="A79" s="3"/>
       <c r="B79" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -8332,964 +8332,964 @@
     <row r="80" spans="1:5" customFormat="1" ht="26.4">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="26.4">
       <c r="B82" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="26.4">
       <c r="B87" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="26.4">
       <c r="B97" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="26.4">
       <c r="B102" s="21" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="22" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" ht="26.4">
-      <c r="B103" s="22" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="22" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" ht="26.4">
-      <c r="B106" s="22" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="26.4">
       <c r="B117" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="39.6">
       <c r="B122" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="22" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="142" spans="2:2" ht="26.4">
       <c r="B142" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="26.4">
       <c r="B145" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="26.4">
       <c r="B152" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="26.4">
       <c r="B157" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="26.4">
       <c r="B162" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="26.4">
       <c r="B167" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="26.4">
       <c r="B177" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="26.4">
       <c r="B187" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="26.4">
       <c r="B192" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="26.4">
       <c r="B197" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212" spans="2:2" ht="26.4">
       <c r="B212" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="222" spans="2:2" ht="26.4">
       <c r="B222" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="227" spans="2:2" ht="26.4">
       <c r="B227" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="22" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="238" spans="2:2" ht="26.4">
       <c r="B238" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="242" spans="2:2" ht="26.4">
       <c r="B242" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" s="22" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="257" spans="2:2" ht="26.4">
       <c r="B257" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -9303,7 +9303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA9F01-7A80-4C6A-A944-C40B861D12D7}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -9311,483 +9311,483 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>853</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>855</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>856</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>859</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>860</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>861</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>864</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>865</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>866</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>868</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>869</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>870</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>871</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>873</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>874</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>876</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>878</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>879</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>883</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="24" t="s">
         <v>884</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>886</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>888</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>889</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>890</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>891</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>893</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="24" t="s">
         <v>894</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>895</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>896</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>899</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>900</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>901</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>903</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>904</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>905</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>906</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>908</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="24" t="s">
         <v>909</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>913</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="24" t="s">
         <v>914</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>915</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>916</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>918</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>919</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>920</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>921</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C15" s="24" t="s">
         <v>924</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="24" t="s">
         <v>926</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15">
       <c r="A16" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>928</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>931</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="24" t="s">
         <v>934</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>935</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="E17" s="24" t="s">
         <v>936</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>938</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="C18" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>940</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>941</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="24" t="s">
         <v>945</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="E19" s="24" t="s">
         <v>946</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>948</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>951</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15">
       <c r="A21" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>953</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>954</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>955</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>956</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15">
       <c r="A22" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>958</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="24" t="s">
         <v>960</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="E22" s="24" t="s">
         <v>961</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="C23" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>966</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>968</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>969</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>970</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="E24" s="24" t="s">
         <v>971</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>973</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>974</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="D25" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="E25" s="24" t="s">
         <v>976</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>978</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>979</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>980</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>981</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
       <c r="A27" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="C27" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>986</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15">
       <c r="A28" s="24" t="s">
+        <v>987</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>988</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>989</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>990</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>991</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15">
       <c r="A29" s="24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B29" s="24">
         <v>142.80000000000001</v>
@@ -9796,109 +9796,109 @@
         <v>143.80000000000001</v>
       </c>
       <c r="D29" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>994</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15">
       <c r="A30" s="24" t="s">
+        <v>995</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>996</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="C30" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="E30" s="24" t="s">
         <v>999</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="24" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>1001</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>1002</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>1003</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="E31" s="24" t="s">
         <v>1004</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15">
       <c r="A32" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="C32" s="24" t="s">
         <v>1007</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>1008</v>
       </c>
       <c r="D32" s="24">
         <v>159.80000000000001</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15">
       <c r="A33" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B33" s="24">
         <v>162.80000000000001</v>
       </c>
       <c r="C33" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="E33" s="24" t="s">
         <v>1012</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15">
       <c r="A34" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>1014</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="C34" s="24" t="s">
         <v>1015</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="E34" s="24" t="s">
         <v>1017</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
       <c r="A35" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>1021</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>1022</v>
       </c>
       <c r="E35" s="24">
         <v>175.8</v>
@@ -9906,87 +9906,87 @@
     </row>
     <row r="36" spans="1:5" ht="15">
       <c r="A36" s="24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>1023</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>1024</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>1025</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="E36" s="24" t="s">
         <v>1026</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15">
       <c r="A37" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>1028</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>1029</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>1030</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>1031</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15">
       <c r="A38" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>1033</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="C38" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="D38" s="24" t="s">
         <v>1035</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="E38" s="24" t="s">
         <v>1036</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="24" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B39" s="24">
         <v>192.8</v>
       </c>
       <c r="C39" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>1039</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="E39" s="24" t="s">
         <v>1040</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>1042</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="C40" s="24" t="s">
         <v>1043</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="D40" s="24" t="s">
         <v>1044</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="E40" s="24" t="s">
         <v>1045</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/exams/Đề số 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81CF9BF-A705-43BC-B133-53C8A2BFCF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6F791-0E50-4CCB-9DFF-AFCB5F278B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="9" r:id="rId1"/>
@@ -284,6 +284,9 @@
     <t>B. To refuse a request</t>
   </si>
   <si>
+    <t>C. ) To express agreement</t>
+  </si>
+  <si>
     <t>D. To show concern</t>
   </si>
   <si>
@@ -3171,9 +3174,6 @@
   </si>
   <si>
     <t>200.B</t>
-  </si>
-  <si>
-    <t>C. To express agreement</t>
   </si>
 </sst>
 </file>
@@ -3732,160 +3732,160 @@
   <sheetData>
     <row r="1" spans="2:3" ht="14.4">
       <c r="B1" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="14.4">
       <c r="B2" s="18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="14.4">
       <c r="B7" s="18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="14.4">
       <c r="B12" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.4">
       <c r="B17" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="14.4">
       <c r="B22" s="18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="14.4">
       <c r="B27" s="18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +3912,7 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -3926,21 +3926,21 @@
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1">
       <c r="B3" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="2:5" s="8" customFormat="1">
       <c r="B4" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:5" s="8" customFormat="1">
       <c r="B5" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="9"/>
@@ -3954,21 +3954,21 @@
     </row>
     <row r="7" spans="2:5" s="8" customFormat="1">
       <c r="B7" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:5" s="8" customFormat="1">
       <c r="B8" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:5" s="8" customFormat="1">
       <c r="B9" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3982,21 +3982,21 @@
     </row>
     <row r="11" spans="2:5" s="8" customFormat="1">
       <c r="B11" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="2:5" s="8" customFormat="1">
       <c r="B12" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="2:5" s="8" customFormat="1">
       <c r="B13" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -4010,20 +4010,20 @@
     </row>
     <row r="15" spans="2:5" s="8" customFormat="1">
       <c r="B15" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="2:5" s="11" customFormat="1">
       <c r="B16" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" s="11" customFormat="1">
       <c r="B17" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="19" spans="2:5" s="11" customFormat="1">
       <c r="B19" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" s="11" customFormat="1">
       <c r="B20" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" s="11" customFormat="1">
       <c r="B21" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -4059,19 +4059,19 @@
     </row>
     <row r="23" spans="2:5" s="11" customFormat="1">
       <c r="B23" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" s="11" customFormat="1">
       <c r="B24" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" s="11" customFormat="1">
       <c r="B25" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -4083,19 +4083,19 @@
     </row>
     <row r="27" spans="2:5" s="11" customFormat="1">
       <c r="B27" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" s="11" customFormat="1">
       <c r="B28" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" s="11" customFormat="1">
       <c r="B29" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E29" s="8"/>
     </row>
@@ -4107,19 +4107,19 @@
     </row>
     <row r="31" spans="2:5" s="11" customFormat="1">
       <c r="B31" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" s="11" customFormat="1">
       <c r="B32" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" s="11" customFormat="1">
       <c r="B33" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E33" s="8"/>
     </row>
@@ -4131,18 +4131,18 @@
     </row>
     <row r="35" spans="2:5" s="11" customFormat="1">
       <c r="B35" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -4152,17 +4152,17 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -4172,17 +4172,17 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -4192,17 +4192,17 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -4212,17 +4212,17 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -4232,17 +4232,17 @@
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -4252,17 +4252,17 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="2:2">
@@ -4272,17 +4272,17 @@
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="2:2">
@@ -4292,17 +4292,17 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="2:2">
@@ -4312,17 +4312,17 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="2:2">
@@ -4332,17 +4332,17 @@
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="2:2">
@@ -4352,17 +4352,17 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="2:2">
@@ -4372,17 +4372,17 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="2:2">
@@ -4392,17 +4392,17 @@
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="2:2">
@@ -4412,17 +4412,17 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="2:2">
@@ -4432,17 +4432,17 @@
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="2:2">
@@ -4452,17 +4452,17 @@
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4476,8 +4476,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A175" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4491,7 +4491,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="13.8">
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4924,562 +4924,562 @@
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="7" t="s">
-        <v>1046</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="20.399999999999999">
       <c r="B162" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="20.399999999999999">
       <c r="B177" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="25.8" customHeight="1">
       <c r="B192" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="13.8" customHeight="1">
       <c r="B194" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5508,87 +5508,87 @@
     <row r="1" spans="1:2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="20.399999999999999">
       <c r="B2" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -5598,667 +5598,667 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="20.399999999999999">
       <c r="B47" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="20.399999999999999">
       <c r="B52" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="20.399999999999999">
       <c r="B62" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="20.399999999999999">
       <c r="B72" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="20.399999999999999">
       <c r="B87" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="20.399999999999999">
       <c r="B92" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="20.399999999999999">
       <c r="B102" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="20.399999999999999">
       <c r="B117" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6289,758 +6289,758 @@
     <row r="1" spans="1:3" ht="13.8">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="20.399999999999999">
       <c r="B2" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.399999999999999">
       <c r="B7" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.399999999999999">
       <c r="B12" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.399999999999999">
       <c r="B17" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="20.399999999999999">
       <c r="B22" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="20.399999999999999">
       <c r="B27" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="20.399999999999999">
       <c r="B32" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="20.399999999999999">
       <c r="B37" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="20.399999999999999">
       <c r="B42" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="20.399999999999999">
       <c r="B47" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="20.399999999999999">
       <c r="B52" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="20.399999999999999">
       <c r="B57" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="20.399999999999999">
       <c r="B62" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="20.399999999999999">
       <c r="B67" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="20.399999999999999">
       <c r="B72" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="20.399999999999999">
       <c r="B77" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="20.399999999999999">
       <c r="B82" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="20.399999999999999">
       <c r="B87" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="20.399999999999999">
       <c r="B92" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="20.399999999999999">
       <c r="B97" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="20.399999999999999">
       <c r="B102" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="20.399999999999999">
       <c r="B107" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="20.399999999999999">
       <c r="B112" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="20.399999999999999">
       <c r="B117" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="20.399999999999999">
       <c r="B122" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="2:2" ht="20.399999999999999">
       <c r="B127" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="20.399999999999999">
       <c r="B132" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="20.399999999999999">
       <c r="B137" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="2:2" ht="20.399999999999999">
       <c r="B142" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="30.6">
       <c r="B147" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +7070,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.8">
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -7079,7 +7079,7 @@
     <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7088,7 +7088,7 @@
     <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -7097,7 +7097,7 @@
     <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="15"/>
       <c r="B4" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -7106,7 +7106,7 @@
     <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -7115,7 +7115,7 @@
     <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7124,7 +7124,7 @@
     <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -7133,7 +7133,7 @@
     <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -7142,7 +7142,7 @@
     <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -7151,7 +7151,7 @@
     <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="15"/>
       <c r="B10" s="17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7160,7 +7160,7 @@
     <row r="11" spans="1:5" ht="13.8">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7169,7 +7169,7 @@
     <row r="12" spans="1:5" ht="13.8">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7178,7 +7178,7 @@
     <row r="13" spans="1:5" ht="13.8">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7187,7 +7187,7 @@
     <row r="14" spans="1:5" ht="13.8">
       <c r="A14" s="15"/>
       <c r="B14" s="17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7196,7 +7196,7 @@
     <row r="15" spans="1:5" ht="13.8">
       <c r="A15" s="15"/>
       <c r="B15" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7205,7 +7205,7 @@
     <row r="16" spans="1:5" ht="13.8">
       <c r="A16" s="15"/>
       <c r="B16" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7214,7 +7214,7 @@
     <row r="17" spans="1:5" ht="13.8">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7223,7 +7223,7 @@
     <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="15"/>
       <c r="B18" s="17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7232,7 +7232,7 @@
     <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="15"/>
       <c r="B19" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7241,7 +7241,7 @@
     <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="15"/>
       <c r="B20" s="17" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7249,58 +7249,58 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="17" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="17" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:5" customFormat="1">
       <c r="A31" s="3"/>
       <c r="B31" s="17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -7308,7 +7308,7 @@
     <row r="32" spans="1:5" customFormat="1">
       <c r="A32" s="3"/>
       <c r="B32" s="16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -7316,7 +7316,7 @@
     <row r="33" spans="1:5" customFormat="1" ht="26.4">
       <c r="A33" s="3"/>
       <c r="B33" s="17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -7324,7 +7324,7 @@
     <row r="34" spans="1:5" customFormat="1">
       <c r="A34" s="3"/>
       <c r="B34" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -7332,7 +7332,7 @@
     <row r="35" spans="1:5" customFormat="1">
       <c r="A35" s="3"/>
       <c r="B35" s="17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7340,7 +7340,7 @@
     <row r="36" spans="1:5" customFormat="1">
       <c r="A36" s="3"/>
       <c r="B36" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -7348,7 +7348,7 @@
     <row r="37" spans="1:5" customFormat="1">
       <c r="A37" s="3"/>
       <c r="B37" s="16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -7356,7 +7356,7 @@
     <row r="38" spans="1:5" customFormat="1">
       <c r="A38" s="3"/>
       <c r="B38" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -7364,7 +7364,7 @@
     <row r="39" spans="1:5" customFormat="1">
       <c r="A39" s="3"/>
       <c r="B39" s="17" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -7372,7 +7372,7 @@
     <row r="40" spans="1:5" customFormat="1">
       <c r="A40" s="3"/>
       <c r="B40" s="17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7380,7 +7380,7 @@
     <row r="41" spans="1:5" customFormat="1">
       <c r="A41" s="3"/>
       <c r="B41" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -7388,7 +7388,7 @@
     <row r="42" spans="1:5" customFormat="1">
       <c r="A42" s="3"/>
       <c r="B42" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -7396,7 +7396,7 @@
     <row r="43" spans="1:5" customFormat="1">
       <c r="A43" s="3"/>
       <c r="B43" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -7404,7 +7404,7 @@
     <row r="44" spans="1:5" customFormat="1">
       <c r="A44" s="3"/>
       <c r="B44" s="17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -7412,7 +7412,7 @@
     <row r="45" spans="1:5" customFormat="1">
       <c r="A45" s="3"/>
       <c r="B45" s="17" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -7420,7 +7420,7 @@
     <row r="46" spans="1:5" customFormat="1">
       <c r="A46" s="3"/>
       <c r="B46" s="17" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -7428,7 +7428,7 @@
     <row r="47" spans="1:5" customFormat="1">
       <c r="A47" s="3"/>
       <c r="B47" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -7436,7 +7436,7 @@
     <row r="48" spans="1:5" customFormat="1">
       <c r="A48" s="3"/>
       <c r="B48" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -7444,7 +7444,7 @@
     <row r="49" spans="1:5" customFormat="1">
       <c r="A49" s="3"/>
       <c r="B49" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -7452,7 +7452,7 @@
     <row r="50" spans="1:5" customFormat="1">
       <c r="A50" s="3"/>
       <c r="B50" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -7460,7 +7460,7 @@
     <row r="51" spans="1:5" customFormat="1">
       <c r="A51" s="3"/>
       <c r="B51" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -7468,7 +7468,7 @@
     <row r="52" spans="1:5" customFormat="1">
       <c r="A52" s="3"/>
       <c r="B52" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -7476,7 +7476,7 @@
     <row r="53" spans="1:5" customFormat="1" ht="26.4">
       <c r="A53" s="3"/>
       <c r="B53" s="17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -7484,7 +7484,7 @@
     <row r="54" spans="1:5" customFormat="1">
       <c r="A54" s="3"/>
       <c r="B54" s="17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -7492,7 +7492,7 @@
     <row r="55" spans="1:5" customFormat="1">
       <c r="A55" s="3"/>
       <c r="B55" s="17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -7500,7 +7500,7 @@
     <row r="56" spans="1:5" customFormat="1">
       <c r="A56" s="3"/>
       <c r="B56" s="17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -7508,7 +7508,7 @@
     <row r="57" spans="1:5" customFormat="1">
       <c r="A57" s="3"/>
       <c r="B57" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -7516,7 +7516,7 @@
     <row r="58" spans="1:5" customFormat="1">
       <c r="A58" s="3"/>
       <c r="B58" s="17" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -7524,7 +7524,7 @@
     <row r="59" spans="1:5" customFormat="1">
       <c r="A59" s="3"/>
       <c r="B59" s="17" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7532,7 +7532,7 @@
     <row r="60" spans="1:5" customFormat="1">
       <c r="A60" s="3"/>
       <c r="B60" s="17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -7540,7 +7540,7 @@
     <row r="61" spans="1:5" customFormat="1">
       <c r="A61" s="3"/>
       <c r="B61" s="17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -7548,7 +7548,7 @@
     <row r="62" spans="1:5" customFormat="1">
       <c r="A62" s="3"/>
       <c r="B62" s="16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -7556,7 +7556,7 @@
     <row r="63" spans="1:5" customFormat="1" ht="26.4">
       <c r="A63" s="3"/>
       <c r="B63" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -7564,7 +7564,7 @@
     <row r="64" spans="1:5" customFormat="1">
       <c r="A64" s="3"/>
       <c r="B64" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -7572,7 +7572,7 @@
     <row r="65" spans="1:5" customFormat="1">
       <c r="A65" s="3"/>
       <c r="B65" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -7580,7 +7580,7 @@
     <row r="66" spans="1:5" customFormat="1">
       <c r="A66" s="3"/>
       <c r="B66" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -7588,7 +7588,7 @@
     <row r="67" spans="1:5" customFormat="1">
       <c r="A67" s="3"/>
       <c r="B67" s="16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -7596,7 +7596,7 @@
     <row r="68" spans="1:5" customFormat="1">
       <c r="A68" s="3"/>
       <c r="B68" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -7604,7 +7604,7 @@
     <row r="69" spans="1:5" customFormat="1">
       <c r="A69" s="3"/>
       <c r="B69" s="17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -7612,7 +7612,7 @@
     <row r="70" spans="1:5" customFormat="1">
       <c r="A70" s="3"/>
       <c r="B70" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -7620,7 +7620,7 @@
     <row r="71" spans="1:5" customFormat="1">
       <c r="A71" s="3"/>
       <c r="B71" s="17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7628,7 +7628,7 @@
     <row r="72" spans="1:5" customFormat="1">
       <c r="A72" s="3"/>
       <c r="B72" s="16" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -7636,7 +7636,7 @@
     <row r="73" spans="1:5" customFormat="1">
       <c r="A73" s="3"/>
       <c r="B73" s="17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -7644,7 +7644,7 @@
     <row r="74" spans="1:5" customFormat="1">
       <c r="A74" s="3"/>
       <c r="B74" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -7652,7 +7652,7 @@
     <row r="75" spans="1:5" customFormat="1">
       <c r="A75" s="3"/>
       <c r="B75" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -7660,7 +7660,7 @@
     <row r="76" spans="1:5" customFormat="1">
       <c r="A76" s="3"/>
       <c r="B76" s="17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -7668,7 +7668,7 @@
     <row r="77" spans="1:5" customFormat="1">
       <c r="A77" s="3"/>
       <c r="B77" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -7676,7 +7676,7 @@
     <row r="78" spans="1:5" customFormat="1">
       <c r="A78" s="3"/>
       <c r="B78" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -7684,7 +7684,7 @@
     <row r="79" spans="1:5" customFormat="1">
       <c r="A79" s="3"/>
       <c r="B79" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -7692,14 +7692,14 @@
     <row r="80" spans="1:5" customFormat="1">
       <c r="A80" s="3"/>
       <c r="B80" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -7729,7 +7729,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.8">
       <c r="B1" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="2" spans="2:5" ht="13.8">
       <c r="B2" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="3" spans="2:5" ht="13.8">
       <c r="B3" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="4" spans="2:5" ht="13.8">
       <c r="B4" s="22" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="5" spans="2:5" ht="13.8">
       <c r="B5" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="6" spans="2:5" ht="13.8">
       <c r="B6" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="7" spans="2:5" ht="13.8">
       <c r="B7" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="8" spans="2:5" ht="13.8">
       <c r="B8" s="22" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="9" spans="2:5" ht="13.8">
       <c r="B9" s="22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="10" spans="2:5" ht="13.8">
       <c r="B10" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="11" spans="2:5" ht="13.8">
       <c r="B11" s="22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="12" spans="2:5" ht="13.8">
       <c r="B12" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="13" spans="2:5" ht="13.8">
       <c r="B13" s="22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="14" spans="2:5" ht="13.8">
       <c r="B14" s="22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="15" spans="2:5" ht="13.8">
       <c r="B15" s="22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="16" spans="2:5" ht="13.8">
       <c r="B16" s="22" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="17" spans="1:5" ht="26.4">
       <c r="B17" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="18" spans="1:5" ht="13.8">
       <c r="B18" s="22" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="19" spans="1:5" ht="13.8">
       <c r="B19" s="22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.8">
       <c r="B20" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7889,58 +7889,58 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.4">
       <c r="B27" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="22" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31" spans="1:5" customFormat="1">
       <c r="A31" s="3"/>
       <c r="B31" s="22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -7948,7 +7948,7 @@
     <row r="32" spans="1:5" customFormat="1">
       <c r="A32" s="3"/>
       <c r="B32" s="21" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -7956,7 +7956,7 @@
     <row r="33" spans="1:5" customFormat="1">
       <c r="A33" s="3"/>
       <c r="B33" s="22" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -7964,7 +7964,7 @@
     <row r="34" spans="1:5" customFormat="1">
       <c r="A34" s="3"/>
       <c r="B34" s="22" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -7972,7 +7972,7 @@
     <row r="35" spans="1:5" customFormat="1">
       <c r="A35" s="3"/>
       <c r="B35" s="22" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7980,7 +7980,7 @@
     <row r="36" spans="1:5" customFormat="1">
       <c r="A36" s="3"/>
       <c r="B36" s="22" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -7988,7 +7988,7 @@
     <row r="37" spans="1:5" customFormat="1" ht="26.4">
       <c r="A37" s="3"/>
       <c r="B37" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -7996,7 +7996,7 @@
     <row r="38" spans="1:5" customFormat="1">
       <c r="A38" s="3"/>
       <c r="B38" s="22" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -8004,7 +8004,7 @@
     <row r="39" spans="1:5" customFormat="1">
       <c r="A39" s="3"/>
       <c r="B39" s="22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -8012,7 +8012,7 @@
     <row r="40" spans="1:5" customFormat="1">
       <c r="A40" s="3"/>
       <c r="B40" s="22" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -8020,7 +8020,7 @@
     <row r="41" spans="1:5" customFormat="1">
       <c r="A41" s="3"/>
       <c r="B41" s="22" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -8028,7 +8028,7 @@
     <row r="42" spans="1:5" customFormat="1">
       <c r="A42" s="3"/>
       <c r="B42" s="21" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -8036,7 +8036,7 @@
     <row r="43" spans="1:5" customFormat="1">
       <c r="A43" s="3"/>
       <c r="B43" s="22" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -8044,7 +8044,7 @@
     <row r="44" spans="1:5" customFormat="1">
       <c r="A44" s="3"/>
       <c r="B44" s="22" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -8052,7 +8052,7 @@
     <row r="45" spans="1:5" customFormat="1">
       <c r="A45" s="3"/>
       <c r="B45" s="22" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -8060,7 +8060,7 @@
     <row r="46" spans="1:5" customFormat="1">
       <c r="A46" s="3"/>
       <c r="B46" s="22" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -8068,7 +8068,7 @@
     <row r="47" spans="1:5" customFormat="1">
       <c r="A47" s="3"/>
       <c r="B47" s="21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -8076,7 +8076,7 @@
     <row r="48" spans="1:5" customFormat="1">
       <c r="A48" s="3"/>
       <c r="B48" s="22" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -8084,7 +8084,7 @@
     <row r="49" spans="1:5" customFormat="1">
       <c r="A49" s="3"/>
       <c r="B49" s="22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -8092,7 +8092,7 @@
     <row r="50" spans="1:5" customFormat="1">
       <c r="A50" s="3"/>
       <c r="B50" s="22" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -8100,7 +8100,7 @@
     <row r="51" spans="1:5" customFormat="1" ht="26.4">
       <c r="A51" s="3"/>
       <c r="B51" s="22" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -8108,7 +8108,7 @@
     <row r="52" spans="1:5" customFormat="1" ht="26.4">
       <c r="A52" s="3"/>
       <c r="B52" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -8116,7 +8116,7 @@
     <row r="53" spans="1:5" customFormat="1">
       <c r="A53" s="3"/>
       <c r="B53" s="22" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -8124,7 +8124,7 @@
     <row r="54" spans="1:5" customFormat="1">
       <c r="A54" s="3"/>
       <c r="B54" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -8132,7 +8132,7 @@
     <row r="55" spans="1:5" customFormat="1">
       <c r="A55" s="3"/>
       <c r="B55" s="22" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -8140,7 +8140,7 @@
     <row r="56" spans="1:5" customFormat="1">
       <c r="A56" s="3"/>
       <c r="B56" s="22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -8148,7 +8148,7 @@
     <row r="57" spans="1:5" customFormat="1">
       <c r="A57" s="3"/>
       <c r="B57" s="21" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -8156,7 +8156,7 @@
     <row r="58" spans="1:5" customFormat="1">
       <c r="A58" s="3"/>
       <c r="B58" s="22" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -8164,7 +8164,7 @@
     <row r="59" spans="1:5" customFormat="1">
       <c r="A59" s="3"/>
       <c r="B59" s="22" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -8172,7 +8172,7 @@
     <row r="60" spans="1:5" customFormat="1">
       <c r="A60" s="3"/>
       <c r="B60" s="22" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -8180,7 +8180,7 @@
     <row r="61" spans="1:5" customFormat="1">
       <c r="A61" s="3"/>
       <c r="B61" s="22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -8188,7 +8188,7 @@
     <row r="62" spans="1:5" customFormat="1">
       <c r="A62" s="3"/>
       <c r="B62" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -8196,7 +8196,7 @@
     <row r="63" spans="1:5" customFormat="1">
       <c r="A63" s="3"/>
       <c r="B63" s="22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -8204,7 +8204,7 @@
     <row r="64" spans="1:5" customFormat="1">
       <c r="A64" s="3"/>
       <c r="B64" s="22" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -8212,7 +8212,7 @@
     <row r="65" spans="1:5" customFormat="1">
       <c r="A65" s="3"/>
       <c r="B65" s="22" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -8220,7 +8220,7 @@
     <row r="66" spans="1:5" customFormat="1">
       <c r="A66" s="3"/>
       <c r="B66" s="22" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -8228,7 +8228,7 @@
     <row r="67" spans="1:5" customFormat="1" ht="52.8">
       <c r="A67" s="3"/>
       <c r="B67" s="21" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -8236,7 +8236,7 @@
     <row r="68" spans="1:5" customFormat="1">
       <c r="A68" s="3"/>
       <c r="B68" s="22" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -8244,7 +8244,7 @@
     <row r="69" spans="1:5" customFormat="1">
       <c r="A69" s="3"/>
       <c r="B69" s="22" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -8252,7 +8252,7 @@
     <row r="70" spans="1:5" customFormat="1">
       <c r="A70" s="3"/>
       <c r="B70" s="22" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -8260,7 +8260,7 @@
     <row r="71" spans="1:5" customFormat="1">
       <c r="A71" s="3"/>
       <c r="B71" s="22" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -8268,7 +8268,7 @@
     <row r="72" spans="1:5" customFormat="1">
       <c r="A72" s="3"/>
       <c r="B72" s="21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -8276,7 +8276,7 @@
     <row r="73" spans="1:5" customFormat="1">
       <c r="A73" s="3"/>
       <c r="B73" s="22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -8284,7 +8284,7 @@
     <row r="74" spans="1:5" customFormat="1">
       <c r="A74" s="3"/>
       <c r="B74" s="22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -8292,7 +8292,7 @@
     <row r="75" spans="1:5" customFormat="1">
       <c r="A75" s="3"/>
       <c r="B75" s="22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -8300,7 +8300,7 @@
     <row r="76" spans="1:5" customFormat="1">
       <c r="A76" s="3"/>
       <c r="B76" s="22" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -8308,7 +8308,7 @@
     <row r="77" spans="1:5" customFormat="1">
       <c r="A77" s="3"/>
       <c r="B77" s="21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -8316,7 +8316,7 @@
     <row r="78" spans="1:5" customFormat="1" ht="26.4">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -8324,7 +8324,7 @@
     <row r="79" spans="1:5" customFormat="1" ht="26.4">
       <c r="A79" s="3"/>
       <c r="B79" s="22" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -8332,964 +8332,964 @@
     <row r="80" spans="1:5" customFormat="1" ht="26.4">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="22" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="26.4">
       <c r="B82" s="21" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="22" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="22" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="22" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="22" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="26.4">
       <c r="B87" s="21" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="22" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="22" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="22" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="22" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="21" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="22" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="22" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="22" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="26.4">
       <c r="B97" s="21" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="22" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="22" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="22" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="22" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="26.4">
       <c r="B102" s="21" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="26.4">
       <c r="B103" s="22" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="26.4">
       <c r="B106" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="21" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="22" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="22" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="22" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="22" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="21" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="22" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="22" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="26.4">
       <c r="B117" s="21" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="22" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="22" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="22" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="22" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="39.6">
       <c r="B122" s="21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="22" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="22" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="22" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="22" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="22" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="22" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="22" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="22" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="22" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="22" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="21" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="22" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="22" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="22" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="22" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="142" spans="2:2" ht="26.4">
       <c r="B142" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="22" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="22" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="26.4">
       <c r="B145" s="22" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="22" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="21" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="22" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="22" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="22" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="26.4">
       <c r="B152" s="21" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="22" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="22" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="22" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="26.4">
       <c r="B157" s="21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="22" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="22" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="22" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="26.4">
       <c r="B162" s="21" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="22" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="26.4">
       <c r="B167" s="21" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="22" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="22" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="22" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="22" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="22" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="22" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="26.4">
       <c r="B177" s="21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="22" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="22" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="21" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="22" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="22" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="26.4">
       <c r="B187" s="21" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="22" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="22" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="22" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="26.4">
       <c r="B192" s="21" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="22" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="22" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="22" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="26.4">
       <c r="B197" s="21" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="22" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="22" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="21" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="22" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="22" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="21" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="22" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="22" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="212" spans="2:2" ht="26.4">
       <c r="B212" s="21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="22" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="22" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="22" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="22" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="22" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="22" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="22" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="22" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="222" spans="2:2" ht="26.4">
       <c r="B222" s="21" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="22" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="22" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="22" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="227" spans="2:2" ht="26.4">
       <c r="B227" s="21" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="22" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="22" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="22" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="22" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" s="21" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="22" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="22" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="22" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="21" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="238" spans="2:2" ht="26.4">
       <c r="B238" s="22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="22" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="22" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="242" spans="2:2" ht="26.4">
       <c r="B242" s="21" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" s="22" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" s="22" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" s="22" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" s="21" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="22" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="21" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="22" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="22" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="22" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="257" spans="2:2" ht="26.4">
       <c r="B257" s="21" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" s="22" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" s="22" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="22" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="21" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="22" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="22" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="21" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -9303,7 +9303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA9F01-7A80-4C6A-A944-C40B861D12D7}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -9311,483 +9311,483 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="24" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="24" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="24" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="24" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="24" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="24" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="24" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="24" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="24" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="24" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="24" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="24" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="24" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="24" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="24" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15">
       <c r="A16" s="24" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="24" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="24" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="24" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="24" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15">
       <c r="A21" s="24" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15">
       <c r="A22" s="24" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" s="24" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
       <c r="A24" s="24" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="24" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="24" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
       <c r="A27" s="24" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15">
       <c r="A28" s="24" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15">
       <c r="A29" s="24" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B29" s="24">
         <v>142.80000000000001</v>
@@ -9796,109 +9796,109 @@
         <v>143.80000000000001</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15">
       <c r="A30" s="24" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="24" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15">
       <c r="A32" s="24" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D32" s="24">
         <v>159.80000000000001</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15">
       <c r="A33" s="24" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B33" s="24">
         <v>162.80000000000001</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15">
       <c r="A34" s="24" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
       <c r="A35" s="24" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E35" s="24">
         <v>175.8</v>
@@ -9906,87 +9906,87 @@
     </row>
     <row r="36" spans="1:5" ht="15">
       <c r="A36" s="24" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15">
       <c r="A37" s="24" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15">
       <c r="A38" s="24" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="24" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B39" s="24">
         <v>192.8</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="24" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
